--- a/Code/Results/Cases/Case_2_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9870152746580309</v>
+        <v>1.014578636771362</v>
       </c>
       <c r="D2">
-        <v>1.007371578661928</v>
+        <v>1.02109545282962</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9957529391623886</v>
+        <v>1.026734190128177</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037738713770654</v>
+        <v>1.027356169029586</v>
       </c>
       <c r="J2">
-        <v>1.009591416278541</v>
+        <v>1.019809068733895</v>
       </c>
       <c r="K2">
-        <v>1.01872916216978</v>
+        <v>1.023933795138616</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.007271761124222</v>
+        <v>1.02955597232027</v>
       </c>
       <c r="N2">
-        <v>1.007271730212135</v>
+        <v>1.010732584082031</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.990785563501707</v>
+        <v>1.015372825508716</v>
       </c>
       <c r="D3">
-        <v>1.009922207278477</v>
+        <v>1.021648998064177</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.000361477429863</v>
+        <v>1.027775913231664</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038484546632935</v>
+        <v>1.027454466200707</v>
       </c>
       <c r="J3">
-        <v>1.011530614631533</v>
+        <v>1.020238716758754</v>
       </c>
       <c r="K3">
-        <v>1.02042968645198</v>
+        <v>1.024294413092469</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.010989735173295</v>
+        <v>1.030404638320952</v>
       </c>
       <c r="N3">
-        <v>1.007919699333715</v>
+        <v>1.010875357983942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9931789591538681</v>
+        <v>1.01588719143872</v>
       </c>
       <c r="D4">
-        <v>1.011543395481814</v>
+        <v>1.022007399451759</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.003287296676814</v>
+        <v>1.028450652445256</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038947324080952</v>
+        <v>1.027516807935385</v>
       </c>
       <c r="J4">
-        <v>1.012758772025775</v>
+        <v>1.020516557040173</v>
       </c>
       <c r="K4">
-        <v>1.02150446998387</v>
+        <v>1.024527272760225</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.01334620817958</v>
+        <v>1.030953859791596</v>
       </c>
       <c r="N4">
-        <v>1.008329981703253</v>
+        <v>1.010967657312384</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9941744195901973</v>
+        <v>1.016103542540507</v>
       </c>
       <c r="D5">
-        <v>1.012218120989401</v>
+        <v>1.02215812252836</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.004504318184458</v>
+        <v>1.028734473301778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039137204480869</v>
+        <v>1.027542713420128</v>
       </c>
       <c r="J5">
-        <v>1.013268880005622</v>
+        <v>1.020633319147839</v>
       </c>
       <c r="K5">
-        <v>1.021950327544161</v>
+        <v>1.024625049900427</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.014325438505014</v>
+        <v>1.031184770103097</v>
       </c>
       <c r="N5">
-        <v>1.008500364925161</v>
+        <v>1.011006439227543</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9943409427202188</v>
+        <v>1.016139875346889</v>
       </c>
       <c r="D6">
-        <v>1.012331015352354</v>
+        <v>1.022183432545663</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.004707912640164</v>
+        <v>1.028782137453733</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039168814428755</v>
+        <v>1.027547045280939</v>
       </c>
       <c r="J6">
-        <v>1.013354169964687</v>
+        <v>1.020652921528421</v>
       </c>
       <c r="K6">
-        <v>1.022024842184252</v>
+        <v>1.024641460214893</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.01448919577943</v>
+        <v>1.031223541963103</v>
       </c>
       <c r="N6">
-        <v>1.008528851438107</v>
+        <v>1.011012949655234</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9931923022327733</v>
+        <v>1.015890081895846</v>
       </c>
       <c r="D7">
-        <v>1.011552437772158</v>
+        <v>1.022009413222087</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.003303609031282</v>
+        <v>1.028454444244105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038949879529471</v>
+        <v>1.027517155276983</v>
       </c>
       <c r="J7">
-        <v>1.012765612296377</v>
+        <v>1.020518117387344</v>
       </c>
       <c r="K7">
-        <v>1.0215104508761</v>
+        <v>1.024528579724563</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.013359337137521</v>
+        <v>1.030956945158587</v>
       </c>
       <c r="N7">
-        <v>1.008332266551317</v>
+        <v>1.010968175600148</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9882992472551588</v>
+        <v>1.014846937791584</v>
       </c>
       <c r="D8">
-        <v>1.008239739309687</v>
+        <v>1.021282479346451</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9973223424712987</v>
+        <v>1.027086105002159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037994923145945</v>
+        <v>1.027389650198935</v>
       </c>
       <c r="J8">
-        <v>1.010252394985524</v>
+        <v>1.019954304997863</v>
       </c>
       <c r="K8">
-        <v>1.019309242970527</v>
+        <v>1.024055767254992</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.008538706911973</v>
+        <v>1.029842766238608</v>
       </c>
       <c r="N8">
-        <v>1.007492610870548</v>
+        <v>1.010780852542736</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793066400855766</v>
+        <v>1.013012471430723</v>
       </c>
       <c r="D9">
-        <v>1.002170007066896</v>
+        <v>1.0200032926759</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9863300132460557</v>
+        <v>1.024680129559854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036156743538957</v>
+        <v>1.027155322121942</v>
       </c>
       <c r="J9">
-        <v>1.005611909175485</v>
+        <v>1.01895953549275</v>
       </c>
       <c r="K9">
-        <v>1.01522797525911</v>
+        <v>1.023218952291585</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9996488396795041</v>
+        <v>1.027880081850217</v>
       </c>
       <c r="N9">
-        <v>1.005941547043483</v>
+        <v>1.010450132069122</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9730383826949361</v>
+        <v>1.011792061781477</v>
       </c>
       <c r="D10">
-        <v>0.9979549198463312</v>
+        <v>1.019151787259163</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9786647799080842</v>
+        <v>1.023079711057067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034821468301231</v>
+        <v>1.026992651759648</v>
       </c>
       <c r="J10">
-        <v>1.002364115724507</v>
+        <v>1.018295572401836</v>
       </c>
       <c r="K10">
-        <v>1.012361197281915</v>
+        <v>1.022658682655748</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9934302376967326</v>
+        <v>1.026572116476594</v>
       </c>
       <c r="N10">
-        <v>1.004855627205874</v>
+        <v>1.01022924902181</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9702535705534499</v>
+        <v>1.011264238655276</v>
       </c>
       <c r="D11">
-        <v>0.9960867870530514</v>
+        <v>1.018783402029491</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.975257814627835</v>
+        <v>1.022387569971828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034215944862701</v>
+        <v>1.026920690783925</v>
       </c>
       <c r="J11">
-        <v>1.000918419894703</v>
+        <v>1.018007896601439</v>
       </c>
       <c r="K11">
-        <v>1.01108288009206</v>
+        <v>1.022415526229124</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9906619189776515</v>
+        <v>1.026005881666279</v>
       </c>
       <c r="N11">
-        <v>1.004372190141459</v>
+        <v>1.010133513541084</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9692080291583507</v>
+        <v>1.011068276624951</v>
       </c>
       <c r="D12">
-        <v>0.9953861531505426</v>
+        <v>1.018646617466701</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.973978389573641</v>
+        <v>1.022130606686016</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033986800745202</v>
+        <v>1.026893732933828</v>
       </c>
       <c r="J12">
-        <v>1.000375251133276</v>
+        <v>1.017901015712928</v>
       </c>
       <c r="K12">
-        <v>1.010602284249018</v>
+        <v>1.022325124700735</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9896216997027972</v>
+        <v>1.025795576230091</v>
       </c>
       <c r="N12">
-        <v>1.004190549045105</v>
+        <v>1.010097939735453</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9694328142284533</v>
+        <v>1.011110306823752</v>
       </c>
       <c r="D13">
-        <v>0.9955367503949271</v>
+        <v>1.018675955924722</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9742534729809863</v>
+        <v>1.022185720342872</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034036146143468</v>
+        <v>1.026899525807891</v>
       </c>
       <c r="J13">
-        <v>1.000492046316655</v>
+        <v>1.017923943153565</v>
       </c>
       <c r="K13">
-        <v>1.010705638493165</v>
+        <v>1.022344519846423</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9898453804493398</v>
+        <v>1.025840686567911</v>
       </c>
       <c r="N13">
-        <v>1.004229606802484</v>
+        <v>1.010105571037052</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9701673761686272</v>
+        <v>1.011248038426557</v>
       </c>
       <c r="D14">
-        <v>0.99602901126848</v>
+        <v>1.018772094342731</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9751523454169685</v>
+        <v>1.022366326675028</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034197090653155</v>
+        <v>1.026918467094392</v>
       </c>
       <c r="J14">
-        <v>1.000873648863391</v>
+        <v>1.017999062303558</v>
       </c>
       <c r="K14">
-        <v>1.011043272930048</v>
+        <v>1.022408055285129</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9905761812477589</v>
+        <v>1.025988497352497</v>
       </c>
       <c r="N14">
-        <v>1.004357218384546</v>
+        <v>1.010130573270043</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9706184717167966</v>
+        <v>1.011332912043005</v>
       </c>
       <c r="D15">
-        <v>0.9963314097955324</v>
+        <v>1.018831335086416</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9757043024766953</v>
+        <v>1.022477621282854</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034295690259088</v>
+        <v>1.026930107205963</v>
       </c>
       <c r="J15">
-        <v>1.001107940858975</v>
+        <v>1.018045342372096</v>
       </c>
       <c r="K15">
-        <v>1.011250529135307</v>
+        <v>1.022447190679979</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9910248512118669</v>
+        <v>1.026079571051711</v>
       </c>
       <c r="N15">
-        <v>1.00443556705832</v>
+        <v>1.010145976208795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9732216693241067</v>
+        <v>1.011827104902073</v>
       </c>
       <c r="D16">
-        <v>0.9980779736065143</v>
+        <v>1.019176242708107</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9788889768935576</v>
+        <v>1.023125664183213</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034861068955334</v>
+        <v>1.026997395519953</v>
       </c>
       <c r="J16">
-        <v>1.002459210575048</v>
+        <v>1.018314660892675</v>
       </c>
       <c r="K16">
-        <v>1.01244523769283</v>
+        <v>1.022674808529186</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9936123198975363</v>
+        <v>1.02660969828329</v>
       </c>
       <c r="N16">
-        <v>1.004887425622046</v>
+        <v>1.010235600772084</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.974835317586026</v>
+        <v>1.012137266683486</v>
       </c>
       <c r="D17">
-        <v>0.9991618564419482</v>
+        <v>1.019392681621267</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9808626173292263</v>
+        <v>1.023532392778205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035208315242953</v>
+        <v>1.027039196182944</v>
       </c>
       <c r="J17">
-        <v>1.003296107175988</v>
+        <v>1.018483551077508</v>
       </c>
       <c r="K17">
-        <v>1.013184597327386</v>
+        <v>1.02281743913593</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.995214726156298</v>
+        <v>1.026942266630235</v>
       </c>
       <c r="N17">
-        <v>1.005167265850475</v>
+        <v>1.010291795624537</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9757697554143301</v>
+        <v>1.012318238746825</v>
       </c>
       <c r="D18">
-        <v>0.9997899398539816</v>
+        <v>1.019518957754618</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9820053818571832</v>
+        <v>1.023769712703124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035408228553213</v>
+        <v>1.027063430755536</v>
       </c>
       <c r="J18">
-        <v>1.003780473391348</v>
+        <v>1.018582044870008</v>
       </c>
       <c r="K18">
-        <v>1.013612300194998</v>
+        <v>1.022900579436725</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9961421273342812</v>
+        <v>1.027136259908895</v>
       </c>
       <c r="N18">
-        <v>1.005329221687599</v>
+        <v>1.010324564261182</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9760872407755685</v>
+        <v>1.012379955666002</v>
       </c>
       <c r="D19">
-        <v>1.000003407973047</v>
+        <v>1.019562019855237</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9823936269659626</v>
+        <v>1.023850646548029</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035475951266297</v>
+        <v>1.027071669159487</v>
       </c>
       <c r="J19">
-        <v>1.003944995887095</v>
+        <v>1.018615625792904</v>
       </c>
       <c r="K19">
-        <v>1.013757539477633</v>
+        <v>1.022928918984847</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9964571335568752</v>
+        <v>1.027202408574961</v>
       </c>
       <c r="N19">
-        <v>1.005384231449799</v>
+        <v>1.010335736003192</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9746628929793157</v>
+        <v>1.012103983048682</v>
       </c>
       <c r="D20">
-        <v>0.9990459948581288</v>
+        <v>1.019369456557838</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9806517410709829</v>
+        <v>1.023488746159093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035171331821409</v>
+        <v>1.027034726573043</v>
       </c>
       <c r="J20">
-        <v>1.0032067090231</v>
+        <v>1.018465432509207</v>
       </c>
       <c r="K20">
-        <v>1.013105640064467</v>
+        <v>1.022802141769954</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.995043557652378</v>
+        <v>1.0269065839679</v>
       </c>
       <c r="N20">
-        <v>1.005137373617994</v>
+        <v>1.010285767363373</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9699513778718845</v>
+        <v>1.01120747726855</v>
       </c>
       <c r="D21">
-        <v>0.9958842406388537</v>
+        <v>1.018743782577787</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9748880403993175</v>
+        <v>1.022313139050654</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034149814145998</v>
+        <v>1.026912895656335</v>
       </c>
       <c r="J21">
-        <v>1.00076144897163</v>
+        <v>1.017976942275697</v>
       </c>
       <c r="K21">
-        <v>1.010944009137315</v>
+        <v>1.022389347947773</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9903613131601248</v>
+        <v>1.025944970217941</v>
       </c>
       <c r="N21">
-        <v>1.004319697826102</v>
+        <v>1.010123211102001</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9669243323084505</v>
+        <v>1.010644358764085</v>
       </c>
       <c r="D22">
-        <v>0.9938572585628203</v>
+        <v>1.018350687295426</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9711832029384385</v>
+        <v>1.021574733459806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033483032264823</v>
+        <v>1.026834974902828</v>
       </c>
       <c r="J22">
-        <v>0.9991881628526561</v>
+        <v>1.017669663298203</v>
       </c>
       <c r="K22">
-        <v>1.00955139449863</v>
+        <v>1.022129331873025</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9873479880452098</v>
+        <v>1.025340478099863</v>
       </c>
       <c r="N22">
-        <v>1.003793564634517</v>
+        <v>1.010020928274945</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9685353475845575</v>
+        <v>1.010942825882995</v>
       </c>
       <c r="D23">
-        <v>0.9949355972690075</v>
+        <v>1.01855904641264</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9731551376968801</v>
+        <v>1.021966105282852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033838871038185</v>
+        <v>1.026876407176914</v>
       </c>
       <c r="J23">
-        <v>1.000025680168688</v>
+        <v>1.017832571161205</v>
       </c>
       <c r="K23">
-        <v>1.010292897987969</v>
+        <v>1.022267216078773</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9889521925835061</v>
+        <v>1.02566091982303</v>
       </c>
       <c r="N23">
-        <v>1.004073647347206</v>
+        <v>1.010075157530907</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9747408251384837</v>
+        <v>1.012119022305524</v>
       </c>
       <c r="D24">
-        <v>0.9990983604554819</v>
+        <v>1.01937995086879</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9807470529628756</v>
+        <v>1.023508467934137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035188051155263</v>
+        <v>1.027036746651779</v>
       </c>
       <c r="J24">
-        <v>1.003247115867511</v>
+        <v>1.018473619562951</v>
       </c>
       <c r="K24">
-        <v>1.01314132841756</v>
+        <v>1.022809054157287</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9951209237102295</v>
+        <v>1.026922707390686</v>
       </c>
       <c r="N24">
-        <v>1.005150884550525</v>
+        <v>1.010288491302562</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9816777388798356</v>
+        <v>1.013486278870277</v>
       </c>
       <c r="D25">
-        <v>1.003767943574068</v>
+        <v>1.020333773773821</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9892286699583858</v>
+        <v>1.025301507920542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036650903097566</v>
+        <v>1.027217041258083</v>
       </c>
       <c r="J25">
-        <v>1.006837854451946</v>
+        <v>1.019216850000661</v>
       </c>
       <c r="K25">
-        <v>1.016308047319279</v>
+        <v>1.023435715704151</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.001996530457447</v>
+        <v>1.028387400674444</v>
       </c>
       <c r="N25">
-        <v>1.006351384186546</v>
+        <v>1.010535703909455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014578636771362</v>
+        <v>0.9870152746580309</v>
       </c>
       <c r="D2">
-        <v>1.02109545282962</v>
+        <v>1.007371578661928</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.026734190128177</v>
+        <v>0.9957529391623885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027356169029586</v>
+        <v>1.037738713770654</v>
       </c>
       <c r="J2">
-        <v>1.019809068733895</v>
+        <v>1.009591416278541</v>
       </c>
       <c r="K2">
-        <v>1.023933795138616</v>
+        <v>1.01872916216978</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.02955597232027</v>
+        <v>1.007271761124222</v>
       </c>
       <c r="N2">
-        <v>1.010732584082031</v>
+        <v>1.007271730212136</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015372825508716</v>
+        <v>0.9907855635017071</v>
       </c>
       <c r="D3">
-        <v>1.021648998064177</v>
+        <v>1.009922207278477</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.027775913231664</v>
+        <v>1.000361477429864</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027454466200707</v>
+        <v>1.038484546632935</v>
       </c>
       <c r="J3">
-        <v>1.020238716758754</v>
+        <v>1.011530614631533</v>
       </c>
       <c r="K3">
-        <v>1.024294413092469</v>
+        <v>1.02042968645198</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.030404638320952</v>
+        <v>1.010989735173295</v>
       </c>
       <c r="N3">
-        <v>1.010875357983942</v>
+        <v>1.007919699333715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01588719143872</v>
+        <v>0.9931789591538682</v>
       </c>
       <c r="D4">
-        <v>1.022007399451759</v>
+        <v>1.011543395481814</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.028450652445256</v>
+        <v>1.003287296676813</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027516807935385</v>
+        <v>1.038947324080952</v>
       </c>
       <c r="J4">
-        <v>1.020516557040173</v>
+        <v>1.012758772025775</v>
       </c>
       <c r="K4">
-        <v>1.024527272760225</v>
+        <v>1.02150446998387</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.030953859791596</v>
+        <v>1.013346208179579</v>
       </c>
       <c r="N4">
-        <v>1.010967657312384</v>
+        <v>1.008329981703253</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016103542540507</v>
+        <v>0.9941744195901973</v>
       </c>
       <c r="D5">
-        <v>1.02215812252836</v>
+        <v>1.012218120989401</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.028734473301778</v>
+        <v>1.004504318184459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027542713420128</v>
+        <v>1.039137204480869</v>
       </c>
       <c r="J5">
-        <v>1.020633319147839</v>
+        <v>1.013268880005623</v>
       </c>
       <c r="K5">
-        <v>1.024625049900427</v>
+        <v>1.021950327544161</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.031184770103097</v>
+        <v>1.014325438505014</v>
       </c>
       <c r="N5">
-        <v>1.011006439227543</v>
+        <v>1.008500364925162</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016139875346889</v>
+        <v>0.9943409427202189</v>
       </c>
       <c r="D6">
-        <v>1.022183432545663</v>
+        <v>1.012331015352354</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.028782137453733</v>
+        <v>1.004707912640164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027547045280939</v>
+        <v>1.039168814428755</v>
       </c>
       <c r="J6">
-        <v>1.020652921528421</v>
+        <v>1.013354169964687</v>
       </c>
       <c r="K6">
-        <v>1.024641460214893</v>
+        <v>1.022024842184252</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.031223541963103</v>
+        <v>1.01448919577943</v>
       </c>
       <c r="N6">
-        <v>1.011012949655234</v>
+        <v>1.008528851438107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015890081895846</v>
+        <v>0.9931923022327731</v>
       </c>
       <c r="D7">
-        <v>1.022009413222087</v>
+        <v>1.011552437772158</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.028454444244105</v>
+        <v>1.003303609031281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027517155276983</v>
+        <v>1.038949879529471</v>
       </c>
       <c r="J7">
-        <v>1.020518117387344</v>
+        <v>1.012765612296377</v>
       </c>
       <c r="K7">
-        <v>1.024528579724563</v>
+        <v>1.021510450876099</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.030956945158587</v>
+        <v>1.01335933713752</v>
       </c>
       <c r="N7">
-        <v>1.010968175600148</v>
+        <v>1.008332266551317</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014846937791584</v>
+        <v>0.9882992472551587</v>
       </c>
       <c r="D8">
-        <v>1.021282479346451</v>
+        <v>1.008239739309687</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.027086105002159</v>
+        <v>0.9973223424712986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027389650198935</v>
+        <v>1.037994923145945</v>
       </c>
       <c r="J8">
-        <v>1.019954304997863</v>
+        <v>1.010252394985524</v>
       </c>
       <c r="K8">
-        <v>1.024055767254992</v>
+        <v>1.019309242970527</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.029842766238608</v>
+        <v>1.008538706911972</v>
       </c>
       <c r="N8">
-        <v>1.010780852542736</v>
+        <v>1.007492610870548</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013012471430723</v>
+        <v>0.9793066400855767</v>
       </c>
       <c r="D9">
-        <v>1.0200032926759</v>
+        <v>1.002170007066896</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.024680129559854</v>
+        <v>0.9863300132460558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027155322121942</v>
+        <v>1.036156743538957</v>
       </c>
       <c r="J9">
-        <v>1.01895953549275</v>
+        <v>1.005611909175485</v>
       </c>
       <c r="K9">
-        <v>1.023218952291585</v>
+        <v>1.01522797525911</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.027880081850217</v>
+        <v>0.9996488396795042</v>
       </c>
       <c r="N9">
-        <v>1.010450132069122</v>
+        <v>1.005941547043483</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011792061781477</v>
+        <v>0.9730383826949363</v>
       </c>
       <c r="D10">
-        <v>1.019151787259163</v>
+        <v>0.9979549198463312</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.023079711057067</v>
+        <v>0.9786647799080845</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026992651759648</v>
+        <v>1.034821468301231</v>
       </c>
       <c r="J10">
-        <v>1.018295572401836</v>
+        <v>1.002364115724507</v>
       </c>
       <c r="K10">
-        <v>1.022658682655748</v>
+        <v>1.012361197281915</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.026572116476594</v>
+        <v>0.9934302376967329</v>
       </c>
       <c r="N10">
-        <v>1.01022924902181</v>
+        <v>1.004855627205875</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011264238655276</v>
+        <v>0.9702535705534503</v>
       </c>
       <c r="D11">
-        <v>1.018783402029491</v>
+        <v>0.996086787053052</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.022387569971828</v>
+        <v>0.9752578146278356</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026920690783925</v>
+        <v>1.034215944862701</v>
       </c>
       <c r="J11">
-        <v>1.018007896601439</v>
+        <v>1.000918419894703</v>
       </c>
       <c r="K11">
-        <v>1.022415526229124</v>
+        <v>1.011082880092061</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.026005881666279</v>
+        <v>0.9906619189776521</v>
       </c>
       <c r="N11">
-        <v>1.010133513541084</v>
+        <v>1.00437219014146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011068276624951</v>
+        <v>0.9692080291583507</v>
       </c>
       <c r="D12">
-        <v>1.018646617466701</v>
+        <v>0.9953861531505425</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.022130606686016</v>
+        <v>0.9739783895736405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026893732933828</v>
+        <v>1.033986800745202</v>
       </c>
       <c r="J12">
-        <v>1.017901015712928</v>
+        <v>1.000375251133276</v>
       </c>
       <c r="K12">
-        <v>1.022325124700735</v>
+        <v>1.010602284249018</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.025795576230091</v>
+        <v>0.9896216997027968</v>
       </c>
       <c r="N12">
-        <v>1.010097939735453</v>
+        <v>1.004190549045105</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011110306823752</v>
+        <v>0.9694328142284542</v>
       </c>
       <c r="D13">
-        <v>1.018675955924722</v>
+        <v>0.9955367503949278</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.022185720342872</v>
+        <v>0.974253472980987</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026899525807891</v>
+        <v>1.034036146143468</v>
       </c>
       <c r="J13">
-        <v>1.017923943153565</v>
+        <v>1.000492046316656</v>
       </c>
       <c r="K13">
-        <v>1.022344519846423</v>
+        <v>1.010705638493166</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.025840686567911</v>
+        <v>0.9898453804493406</v>
       </c>
       <c r="N13">
-        <v>1.010105571037052</v>
+        <v>1.004229606802485</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011248038426557</v>
+        <v>0.9701673761686275</v>
       </c>
       <c r="D14">
-        <v>1.018772094342731</v>
+        <v>0.9960290112684801</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.022366326675028</v>
+        <v>0.9751523454169688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026918467094392</v>
+        <v>1.034197090653155</v>
       </c>
       <c r="J14">
-        <v>1.017999062303558</v>
+        <v>1.000873648863392</v>
       </c>
       <c r="K14">
-        <v>1.022408055285129</v>
+        <v>1.011043272930048</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.025988497352497</v>
+        <v>0.9905761812477593</v>
       </c>
       <c r="N14">
-        <v>1.010130573270043</v>
+        <v>1.004357218384546</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011332912043005</v>
+        <v>0.9706184717167969</v>
       </c>
       <c r="D15">
-        <v>1.018831335086416</v>
+        <v>0.9963314097955324</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.022477621282854</v>
+        <v>0.9757043024766956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026930107205963</v>
+        <v>1.034295690259088</v>
       </c>
       <c r="J15">
-        <v>1.018045342372096</v>
+        <v>1.001107940858975</v>
       </c>
       <c r="K15">
-        <v>1.022447190679979</v>
+        <v>1.011250529135307</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.026079571051711</v>
+        <v>0.9910248512118672</v>
       </c>
       <c r="N15">
-        <v>1.010145976208795</v>
+        <v>1.00443556705832</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011827104902073</v>
+        <v>0.9732216693241061</v>
       </c>
       <c r="D16">
-        <v>1.019176242708107</v>
+        <v>0.9980779736065138</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.023125664183213</v>
+        <v>0.9788889768935567</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026997395519953</v>
+        <v>1.034861068955333</v>
       </c>
       <c r="J16">
-        <v>1.018314660892675</v>
+        <v>1.002459210575047</v>
       </c>
       <c r="K16">
-        <v>1.022674808529186</v>
+        <v>1.01244523769283</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.02660969828329</v>
+        <v>0.9936123198975355</v>
       </c>
       <c r="N16">
-        <v>1.010235600772084</v>
+        <v>1.004887425622046</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012137266683486</v>
+        <v>0.9748353175860268</v>
       </c>
       <c r="D17">
-        <v>1.019392681621267</v>
+        <v>0.9991618564419491</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.023532392778205</v>
+        <v>0.9808626173292273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027039196182944</v>
+        <v>1.035208315242954</v>
       </c>
       <c r="J17">
-        <v>1.018483551077508</v>
+        <v>1.003296107175988</v>
       </c>
       <c r="K17">
-        <v>1.02281743913593</v>
+        <v>1.013184597327387</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.026942266630235</v>
+        <v>0.9952147261562988</v>
       </c>
       <c r="N17">
-        <v>1.010291795624537</v>
+        <v>1.005167265850476</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012318238746825</v>
+        <v>0.97576975541433</v>
       </c>
       <c r="D18">
-        <v>1.019518957754618</v>
+        <v>0.9997899398539817</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.023769712703124</v>
+        <v>0.9820053818571837</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027063430755536</v>
+        <v>1.035408228553213</v>
       </c>
       <c r="J18">
-        <v>1.018582044870008</v>
+        <v>1.003780473391349</v>
       </c>
       <c r="K18">
-        <v>1.022900579436725</v>
+        <v>1.013612300194998</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.027136259908895</v>
+        <v>0.9961421273342816</v>
       </c>
       <c r="N18">
-        <v>1.010324564261182</v>
+        <v>1.0053292216876</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012379955666002</v>
+        <v>0.9760872407755687</v>
       </c>
       <c r="D19">
-        <v>1.019562019855237</v>
+        <v>1.000003407973047</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.023850646548029</v>
+        <v>0.9823936269659627</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027071669159487</v>
+        <v>1.035475951266297</v>
       </c>
       <c r="J19">
-        <v>1.018615625792904</v>
+        <v>1.003944995887095</v>
       </c>
       <c r="K19">
-        <v>1.022928918984847</v>
+        <v>1.013757539477633</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.027202408574961</v>
+        <v>0.9964571335568753</v>
       </c>
       <c r="N19">
-        <v>1.010335736003192</v>
+        <v>1.005384231449799</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012103983048682</v>
+        <v>0.974662892979316</v>
       </c>
       <c r="D20">
-        <v>1.019369456557838</v>
+        <v>0.9990459948581293</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.023488746159093</v>
+        <v>0.9806517410709831</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027034726573043</v>
+        <v>1.03517133182141</v>
       </c>
       <c r="J20">
-        <v>1.018465432509207</v>
+        <v>1.0032067090231</v>
       </c>
       <c r="K20">
-        <v>1.022802141769954</v>
+        <v>1.013105640064468</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.0269065839679</v>
+        <v>0.9950435576523784</v>
       </c>
       <c r="N20">
-        <v>1.010285767363373</v>
+        <v>1.005137373617994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01120747726855</v>
+        <v>0.9699513778718846</v>
       </c>
       <c r="D21">
-        <v>1.018743782577787</v>
+        <v>0.9958842406388538</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.022313139050654</v>
+        <v>0.9748880403993175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026912895656335</v>
+        <v>1.034149814145998</v>
       </c>
       <c r="J21">
-        <v>1.017976942275697</v>
+        <v>1.00076144897163</v>
       </c>
       <c r="K21">
-        <v>1.022389347947773</v>
+        <v>1.010944009137315</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.025944970217941</v>
+        <v>0.9903613131601249</v>
       </c>
       <c r="N21">
-        <v>1.010123211102001</v>
+        <v>1.004319697826102</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010644358764085</v>
+        <v>0.9669243323084509</v>
       </c>
       <c r="D22">
-        <v>1.018350687295426</v>
+        <v>0.9938572585628207</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.021574733459806</v>
+        <v>0.9711832029384393</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026834974902828</v>
+        <v>1.033483032264823</v>
       </c>
       <c r="J22">
-        <v>1.017669663298203</v>
+        <v>0.9991881628526564</v>
       </c>
       <c r="K22">
-        <v>1.022129331873025</v>
+        <v>1.009551394498631</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.025340478099863</v>
+        <v>0.9873479880452106</v>
       </c>
       <c r="N22">
-        <v>1.010020928274945</v>
+        <v>1.003793564634517</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010942825882995</v>
+        <v>0.9685353475845581</v>
       </c>
       <c r="D23">
-        <v>1.01855904641264</v>
+        <v>0.994935597269008</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.021966105282852</v>
+        <v>0.9731551376968808</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026876407176914</v>
+        <v>1.033838871038186</v>
       </c>
       <c r="J23">
-        <v>1.017832571161205</v>
+        <v>1.000025680168688</v>
       </c>
       <c r="K23">
-        <v>1.022267216078773</v>
+        <v>1.01029289798797</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.02566091982303</v>
+        <v>0.9889521925835066</v>
       </c>
       <c r="N23">
-        <v>1.010075157530907</v>
+        <v>1.004073647347206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012119022305524</v>
+        <v>0.9747408251384835</v>
       </c>
       <c r="D24">
-        <v>1.01937995086879</v>
+        <v>0.9990983604554817</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.023508467934137</v>
+        <v>0.9807470529628752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027036746651779</v>
+        <v>1.035188051155263</v>
       </c>
       <c r="J24">
-        <v>1.018473619562951</v>
+        <v>1.00324711586751</v>
       </c>
       <c r="K24">
-        <v>1.022809054157287</v>
+        <v>1.01314132841756</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.026922707390686</v>
+        <v>0.9951209237102293</v>
       </c>
       <c r="N24">
-        <v>1.010288491302562</v>
+        <v>1.005150884550525</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013486278870277</v>
+        <v>0.9816777388798364</v>
       </c>
       <c r="D25">
-        <v>1.020333773773821</v>
+        <v>1.003767943574069</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.025301507920542</v>
+        <v>0.9892286699583868</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027217041258083</v>
+        <v>1.036650903097567</v>
       </c>
       <c r="J25">
-        <v>1.019216850000661</v>
+        <v>1.006837854451947</v>
       </c>
       <c r="K25">
-        <v>1.023435715704151</v>
+        <v>1.01630804731928</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.028387400674444</v>
+        <v>1.001996530457448</v>
       </c>
       <c r="N25">
-        <v>1.010535703909455</v>
+        <v>1.006351384186547</v>
       </c>
     </row>
   </sheetData>
